--- a/history/25_35/data_ticker_1503.xlsx
+++ b/history/25_35/data_ticker_1503.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pavel.rostov\PycharmProjects\scrapyBotTrade\history\25_35\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2605D112-46B1-40CB-B4EE-EEB98E96EC4E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F9D6FFD-6615-4A42-B062-37D09987FB01}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1839,67 +1839,24 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Процентный" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFDA9694"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
           <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2239,7 +2196,7 @@
   <dimension ref="A1:CR252"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="CX10" sqref="CX10"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
@@ -2270,7 +2227,7 @@
     <col min="86" max="86" width="9.140625" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
     <col min="87" max="89" width="9.140625" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="90" max="90" width="9.140625" collapsed="1"/>
-    <col min="96" max="96" width="12.28515625" hidden="1" customWidth="1"/>
+    <col min="96" max="96" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:96" x14ac:dyDescent="0.25">
@@ -2286,10 +2243,10 @@
       </c>
     </row>
     <row r="2" spans="1:96" x14ac:dyDescent="0.25">
-      <c r="B2" s="14">
-        <v>44267</v>
-      </c>
-      <c r="C2" s="15"/>
+      <c r="B2" s="16">
+        <v>44270</v>
+      </c>
+      <c r="C2" s="17"/>
       <c r="E2">
         <f>SUBTOTAL(  2,A:A)</f>
         <v>113</v>
@@ -2363,10 +2320,10 @@
       </c>
     </row>
     <row r="6" spans="1:96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G6" s="16">
-        <v>0</v>
-      </c>
-      <c r="H6" s="17">
+      <c r="G6" s="14">
+        <v>0</v>
+      </c>
+      <c r="H6" s="15">
         <v>29</v>
       </c>
       <c r="I6" s="7">
@@ -36221,33 +36178,33 @@
     <mergeCell ref="B2:C2"/>
   </mergeCells>
   <conditionalFormatting sqref="CP9:CP121">
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="between">
       <formula>1%</formula>
       <formula>1.5%</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CP9:CP121">
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="between">
       <formula>0.015</formula>
       <formula>0.02</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CP9:CP121">
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
       <formula>0.02</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CP9:CP121">
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
       <formula>0.005</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="between">
       <formula>0.005</formula>
       <formula>0.01</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CP9:CP121">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
